--- a/Libraries/Vehicle/Suspension/DOF15/sm_car_data_Susp_DOF15.xlsx
+++ b/Libraries/Vehicle/Suspension/DOF15/sm_car_data_Susp_DOF15.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Suspension\DOF15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99355E7-B528-44FC-A33F-405BAB933CED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A50878-B119-4D39-A5E1-8E626E82472A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CCC96D31-0125-4D00-84F2-6850554951C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="816" firstSheet="8" activeTab="10" xr2:uid="{CCC96D31-0125-4D00-84F2-6850554951C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
     <sheet name="Sedan_HambaLG_r" sheetId="2" r:id="rId2"/>
     <sheet name="Sedan_Hamba_f" sheetId="5" r:id="rId3"/>
     <sheet name="Sedan_Hamba_r" sheetId="6" r:id="rId4"/>
-    <sheet name="Trailer_Elula_f" sheetId="3" r:id="rId5"/>
-    <sheet name="Trailer_Thwala_f" sheetId="4" r:id="rId6"/>
+    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId5"/>
+    <sheet name="Bus_Makhulu_r" sheetId="8" r:id="rId6"/>
+    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="10" r:id="rId7"/>
+    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="9" r:id="rId8"/>
+    <sheet name="Truck_Amandla_A1" sheetId="12" r:id="rId9"/>
+    <sheet name="Truck_Amandla_A2" sheetId="13" r:id="rId10"/>
+    <sheet name="Truck_Amandla_A3" sheetId="14" r:id="rId11"/>
+    <sheet name="Trailer_Kumanzi_A1" sheetId="15" r:id="rId12"/>
+    <sheet name="Trailer_Kumanzi_A2" sheetId="16" r:id="rId13"/>
+    <sheet name="Trailer_Elula_f" sheetId="3" r:id="rId14"/>
+    <sheet name="Trailer_Thwala_f" sheetId="4" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +37,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="42">
   <si>
     <t>Units</t>
   </si>
@@ -136,13 +147,41 @@
   <si>
     <t>Simple15DOF_Sedan_HambaLG_r</t>
   </si>
+  <si>
+    <t>Simple15DOF_Bus_Makhulu_f</t>
+  </si>
+  <si>
+    <t>Simple15DOF_Bus_Makhulu_r</t>
+  </si>
+  <si>
+    <t>Simple15DOF_Bus_Makhulu_Axle3_A3</t>
+  </si>
+  <si>
+    <t>Simple15DOF_Bus_Makhulu_Axle3_A2</t>
+  </si>
+  <si>
+    <t>Simple15DOF_Truck_Amandla_A1</t>
+  </si>
+  <si>
+    <t>Simple15DOF_Truck_Amandla_A2</t>
+  </si>
+  <si>
+    <t>Simple15DOF_Truck_Amandla_A3</t>
+  </si>
+  <si>
+    <t>Simple15DOF_Trailer_Kumanzi_A1</t>
+  </si>
+  <si>
+    <t>Simple15DOF_Trailer_Kumanzi_A2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -202,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -253,6 +292,7 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,18 +612,18 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E35" sqref="E35"/>
       <selection pane="topRight" activeCell="E35" sqref="E35"/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
@@ -845,6 +885,1744 @@
         <v>1.76</v>
       </c>
       <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AE8CBB-54A0-4303-8BF2-64CF66628F04}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <f>0.04225*2</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <f>66000</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <f>1.18895-0.4572/2</f>
+        <v>0.96034999999999993</v>
+      </c>
+      <c r="H13">
+        <v>0.67310000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E34EC0-51E4-42A2-9325-050E6479DA1F}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <f>0.04225*2</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <f>66000</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <f>1.18895-0.4572/2</f>
+        <v>0.96034999999999993</v>
+      </c>
+      <c r="H13">
+        <v>0.67310000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD75C69-1488-4D58-8AE5-09760CCF8BA6}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <f>0.04225*2</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <f>66000</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <f>1.18895-0.4572/2</f>
+        <v>0.96034999999999993</v>
+      </c>
+      <c r="H13">
+        <v>0.67310000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9500C561-5646-4AD8-A7A2-390ECB1DD2C8}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <f>0.04225*2</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <f>66000</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <f>1.18895-0.4572/2</f>
+        <v>0.96034999999999993</v>
+      </c>
+      <c r="H13">
+        <v>0.67310000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BA80C1-5689-457F-B345-F063AA6574DE}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>4.2250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>66000</v>
+      </c>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>3500</v>
+      </c>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.68889999999999996</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.35329999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883978A2-0E46-464C-8DB8-584FCCDFA0D8}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>4.2250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>66000</v>
+      </c>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>3500</v>
+      </c>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.26750000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>1.76</v>
+      </c>
       <c r="J15" s="10"/>
     </row>
   </sheetData>
@@ -871,7 +2649,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
@@ -1152,13 +2930,13 @@
       <selection activeCell="E35" sqref="E35"/>
       <selection pane="topRight" activeCell="E35" sqref="E35"/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
@@ -1440,13 +3218,13 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
@@ -1716,24 +3494,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BA80C1-5689-457F-B345-F063AA6574DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A97FCD-2534-4478-BAC4-D67EADDA069F}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
@@ -1741,7 +3519,7 @@
     <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1761,7 +3539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1775,7 +3553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1786,10 +3564,10 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
@@ -1803,7 +3581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1819,7 +3597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -1840,7 +3618,7 @@
         <v>4.2250000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="9" t="s">
@@ -1854,9 +3632,8 @@
       <c r="H7" s="11">
         <v>66000</v>
       </c>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="9" t="s">
@@ -1870,9 +3647,8 @@
       <c r="H8" s="11">
         <v>3500</v>
       </c>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="9" t="s">
@@ -1884,10 +3660,10 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
@@ -1908,7 +3684,7 @@
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="9" t="s">
@@ -1924,7 +3700,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="9" t="s">
@@ -1940,7 +3716,7 @@
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="9" t="s">
         <v>21</v>
@@ -1949,17 +3725,17 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.68889999999999996</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0.35329999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.9829099</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.46136149999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>22</v>
@@ -1981,7 +3757,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="9" t="s">
@@ -2006,24 +3782,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883978A2-0E46-464C-8DB8-584FCCDFA0D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51A71D7-3A2F-45F6-AC18-20D7311A48CC}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
@@ -2031,7 +3807,7 @@
     <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2051,7 +3827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +3841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2076,10 +3852,10 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
@@ -2093,7 +3869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2109,7 +3885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -2130,7 +3906,7 @@
         <v>4.2250000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="9" t="s">
@@ -2144,9 +3920,8 @@
       <c r="H7" s="11">
         <v>66000</v>
       </c>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="9" t="s">
@@ -2160,9 +3935,8 @@
       <c r="H8" s="11">
         <v>3500</v>
       </c>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="9" t="s">
@@ -2174,10 +3948,10 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
@@ -2198,7 +3972,7 @@
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="9" t="s">
@@ -2214,7 +3988,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="9" t="s">
@@ -2230,7 +4004,7 @@
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="9" t="s">
         <v>21</v>
@@ -2239,17 +4013,17 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0.26750000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.83834449999999994</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.46136149999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>22</v>
@@ -2268,9 +4042,10 @@
       <c r="H14" s="11">
         <v>0.15</v>
       </c>
+      <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="9" t="s">
@@ -2285,6 +4060,874 @@
       <c r="H15" s="11">
         <v>1.76</v>
       </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB62AB7-D9A0-459D-BC79-8D114BE64124}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>4.2250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>20500/2/2</f>
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.83834449999999994</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.46136149999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746EECC0-6467-4655-A5C6-CF8B36416941}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>4.2250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>20500/2/2</f>
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.83834449999999994</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.46136149999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6460814A-2B23-47CA-A1E9-513AB4D28DE6}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <f>0.04225*2</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <v>1.18895</v>
+      </c>
+      <c r="H13">
+        <v>0.67310000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
   </sheetData>

--- a/Libraries/Vehicle/Suspension/DOF15/sm_car_data_Susp_DOF15.xlsx
+++ b/Libraries/Vehicle/Suspension/DOF15/sm_car_data_Susp_DOF15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Suspension\DOF15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Suspension\DOF15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A50878-B119-4D39-A5E1-8E626E82472A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF850AEE-A1D9-449E-A6A3-6556DEC00FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="816" firstSheet="8" activeTab="10" xr2:uid="{CCC96D31-0125-4D00-84F2-6850554951C3}"/>
+    <workbookView xWindow="1248" yWindow="2796" windowWidth="15984" windowHeight="8916" tabRatio="816" firstSheet="8" activeTab="12" xr2:uid="{CCC96D31-0125-4D00-84F2-6850554951C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -1190,12 +1190,12 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E35" sqref="E35"/>
       <selection pane="topRight" activeCell="E35" sqref="E35"/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1475,296 +1475,6 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD75C69-1488-4D58-8AE5-09760CCF8BA6}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E35" sqref="E35"/>
-      <selection pane="topRight" activeCell="E35" sqref="E35"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
-        <f>0.04225*2</f>
-        <v>8.4500000000000006E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0.21124999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <f>66000</f>
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <f>20500/2</f>
-        <v>10250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
-        <f>1.18895-0.4572/2</f>
-        <v>0.96034999999999993</v>
-      </c>
-      <c r="H13">
-        <v>0.67310000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <v>1.76</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9500C561-5646-4AD8-A7A2-390ECB1DD2C8}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1834,7 +1544,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1967,8 +1677,296 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11">
-        <f>66000</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <f>1.18895-0.4572/2</f>
+        <v>0.96034999999999993</v>
+      </c>
+      <c r="H13">
+        <v>0.67310000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9500C561-5646-4AD8-A7A2-390ECB1DD2C8}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <f>0.04225*2</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <v>66000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>100000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">

--- a/Libraries/Vehicle/Suspension/DOF15/sm_car_data_Susp_DOF15.xlsx
+++ b/Libraries/Vehicle/Suspension/DOF15/sm_car_data_Susp_DOF15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Suspension\DOF15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Suspension\DOF15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF850AEE-A1D9-449E-A6A3-6556DEC00FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AE3352-4A3A-482C-A2F9-E202DF9CDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="2796" windowWidth="15984" windowHeight="8916" tabRatio="816" firstSheet="8" activeTab="12" xr2:uid="{CCC96D31-0125-4D00-84F2-6850554951C3}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28470" windowHeight="11295" tabRatio="964" firstSheet="7" activeTab="11" xr2:uid="{CCC96D31-0125-4D00-84F2-6850554951C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,15 @@
     <sheet name="Truck_Amandla_A1" sheetId="12" r:id="rId9"/>
     <sheet name="Truck_Amandla_A2" sheetId="13" r:id="rId10"/>
     <sheet name="Truck_Amandla_A3" sheetId="14" r:id="rId11"/>
-    <sheet name="Trailer_Kumanzi_A1" sheetId="15" r:id="rId12"/>
-    <sheet name="Trailer_Kumanzi_A2" sheetId="16" r:id="rId13"/>
-    <sheet name="Trailer_Elula_f" sheetId="3" r:id="rId14"/>
-    <sheet name="Trailer_Thwala_f" sheetId="4" r:id="rId15"/>
+    <sheet name="Truck_Rhuqa_A1" sheetId="17" r:id="rId12"/>
+    <sheet name="Truck_Rhuqa_A2" sheetId="18" r:id="rId13"/>
+    <sheet name="Truck_Rhuqa_A3" sheetId="19" r:id="rId14"/>
+    <sheet name="Trailer_Kumanzi_A1" sheetId="15" r:id="rId15"/>
+    <sheet name="Trailer_Kumanzi_A2" sheetId="16" r:id="rId16"/>
+    <sheet name="Trailer_Kumanzi_10m_A1 " sheetId="20" r:id="rId17"/>
+    <sheet name="Trailer_Kumanzi_10m_A2" sheetId="21" r:id="rId18"/>
+    <sheet name="Trailer_Elula_f" sheetId="3" r:id="rId19"/>
+    <sheet name="Trailer_Thwala_f" sheetId="4" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="47">
   <si>
     <t>Units</t>
   </si>
@@ -174,6 +179,21 @@
   <si>
     <t>Simple15DOF_Trailer_Kumanzi_A2</t>
   </si>
+  <si>
+    <t>Simple15DOF_Truck_Rhuqa_A1</t>
+  </si>
+  <si>
+    <t>Simple15DOF_Truck_Rhuqa_A2</t>
+  </si>
+  <si>
+    <t>Simple15DOF_Truck_Rhuqa_A3</t>
+  </si>
+  <si>
+    <t>Simple15DOF_Trailer_Kumanzi_10m_A1</t>
+  </si>
+  <si>
+    <t>Simple15DOF_Trailer_Kumanzi_10m_A2</t>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -250,25 +270,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -278,19 +294,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -311,9 +326,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +366,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -457,7 +472,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -599,7 +614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,7 +625,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -620,18 +635,18 @@
       <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -651,241 +666,234 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>4.2250000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>66000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>-0.26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <f>66000/2</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2</f>
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="9">
         <v>0.36214285714285716</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -898,7 +906,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -908,18 +916,18 @@
       <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -939,197 +947,195 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <f>0.04225*2</f>
         <v>8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>66000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <f>66000</f>
         <v>66000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2</f>
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <f>1.18895-0.4572/2</f>
         <v>0.96034999999999993</v>
       </c>
@@ -1137,45 +1143,40 @@
         <v>0.67310000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1188,7 +1189,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1198,18 +1199,18 @@
       <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1229,197 +1230,195 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <f>0.04225*2</f>
         <v>8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>66000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <f>66000</f>
         <v>66000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2</f>
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <f>1.18895-0.4572/2</f>
         <v>0.96034999999999993</v>
       </c>
@@ -1427,45 +1426,40 @@
         <v>0.67310000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1474,32 +1468,32 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD75C69-1488-4D58-8AE5-09760CCF8BA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3858A6DB-71B8-4C67-9508-229E7FC38BBB}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E35" sqref="E35"/>
       <selection pane="topRight" activeCell="E35" sqref="E35"/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1519,242 +1513,237 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <f>0.04225*2</f>
         <v>8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <f>66667*2</f>
+        <v>133334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <f>-0.35/2</f>
+        <v>-0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>66000</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2</f>
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
-        <f>1.18895-0.4572/2</f>
-        <v>0.96034999999999993</v>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1.012</v>
       </c>
       <c r="H13">
-        <v>0.67310000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+        <v>0.52749999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1763,13 +1752,863 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38B3C56-B9F4-4912-9395-58B62B2F08B9}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f>0.04225*2</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <f>63333*2</f>
+        <v>126666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <f>-0.12</f>
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>66000</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.52749999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090081EF-FB5F-4CA3-ACED-32C59642B58E}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f>0.04225*2</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <f>63333*4</f>
+        <v>253332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <f>-0.05*2/2</f>
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>66000</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.52749999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD75C69-1488-4D58-8AE5-09760CCF8BA6}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f>0.04225*2</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <f>1.18895-0.4572/2</f>
+        <v>0.96034999999999993</v>
+      </c>
+      <c r="H13">
+        <v>0.67310000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9500C561-5646-4AD8-A7A2-390ECB1DD2C8}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E35" sqref="E35"/>
       <selection pane="topRight" activeCell="E35" sqref="E35"/>
@@ -1777,18 +2616,18 @@
       <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1808,196 +2647,194 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <f>0.04225*2</f>
         <v>8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>66000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2</f>
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <f>1.18895-0.4572/2</f>
         <v>0.96034999999999993</v>
       </c>
@@ -2005,45 +2842,40 @@
         <v>0.67310000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2051,7 +2883,569 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CF7C26-B9CB-4542-9A9C-7AEAFC31853D}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f>0.04225*2</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>63333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.52749999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E01F00-5181-4059-AFFC-DD9E5AFA23A8}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f>0.04225*2</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>63333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.52749999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BA80C1-5689-457F-B345-F063AA6574DE}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -2066,18 +3460,18 @@
       <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2097,243 +3491,236 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>4.2250000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>66000</v>
       </c>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>3500</v>
       </c>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <f>66000/2</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2</f>
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <v>0.68889999999999996</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>0.35329999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2341,7 +3728,287 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE555A4-CC0B-4CE5-A308-A6BA9343B34F}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>4.2250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.36214285714285716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883978A2-0E46-464C-8DB8-584FCCDFA0D8}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -2356,18 +4023,18 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2387,532 +4054,240 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>4.2250000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>66000</v>
       </c>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>3500</v>
       </c>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <f>66000/2</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2</f>
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <v>0.71099999999999997</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>0.26750000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE555A4-CC0B-4CE5-A308-A6BA9343B34F}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
-        <v>4.2250000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
-        <v>-0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0.21124999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <f>66000/2</f>
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <f>20500/2</f>
-        <v>10250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="H13" s="22">
-        <v>0.36214285714285716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <v>1.76</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2921,7 +4296,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2931,18 +4306,18 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2962,241 +4337,234 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>4.2250000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>66000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <f>66000/2</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2</f>
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
         <v>0.78649999999999998</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="9">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3209,7 +4577,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -3219,18 +4587,18 @@
       <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -3250,241 +4618,234 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>4.2250000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <f>66000/2</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2</f>
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <v>0.78649999999999998</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="9">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3496,7 +4857,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -3506,18 +4867,18 @@
       <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3537,241 +4898,234 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>4.2250000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>66000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <f>66000/2</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2</f>
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <v>0.9829099</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="9">
         <v>0.46136149999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3784,7 +5138,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -3794,18 +5148,18 @@
       <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3825,241 +5179,234 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>4.2250000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>66000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <f>66000/2</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2</f>
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="21">
         <v>0.01</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="20">
         <v>0.83834449999999994</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="9">
         <v>0.46136149999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4072,7 +5419,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -4082,18 +5429,18 @@
       <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4113,242 +5460,235 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>4.2250000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <f>66000/2</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>1750</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <f>66000/2</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2/2</f>
         <v>5125</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="21">
         <v>0.01</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="20">
         <v>0.83834449999999994</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="9">
         <v>0.46136149999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4361,7 +5701,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -4371,18 +5711,18 @@
       <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4402,242 +5742,235 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>4.2250000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <f>66000/2</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>1750</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <f>66000/2</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2/2</f>
         <v>5125</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="21">
         <v>0.01</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="20">
         <v>0.83834449999999994</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="9">
         <v>0.46136149999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4650,7 +5983,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -4660,18 +5993,18 @@
       <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4691,242 +6024,235 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <f>0.04225*2</f>
         <v>8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>66000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.21124999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <f>66000/2</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <f>20500/2</f>
         <v>10250</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <v>1.18895</v>
       </c>
       <c r="H13">
         <v>0.67310000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>0.15</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1.76</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Libraries/Vehicle/Suspension/DOF15/sm_car_data_Susp_DOF15.xlsx
+++ b/Libraries/Vehicle/Suspension/DOF15/sm_car_data_Susp_DOF15.xlsx
@@ -1,38 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Suspension\DOF15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vtpVDG\Libraries\Vehicle\Suspension\DOF15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AE3352-4A3A-482C-A2F9-E202DF9CDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB74CB8-35B3-464F-8C51-D4BD01208306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28470" windowHeight="11295" tabRatio="964" firstSheet="7" activeTab="11" xr2:uid="{CCC96D31-0125-4D00-84F2-6850554951C3}"/>
+    <workbookView xWindow="30405" yWindow="2610" windowWidth="21600" windowHeight="11235" tabRatio="964" activeTab="5" xr2:uid="{CCC96D31-0125-4D00-84F2-6850554951C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
     <sheet name="Sedan_HambaLG_r" sheetId="2" r:id="rId2"/>
     <sheet name="Sedan_Hamba_f" sheetId="5" r:id="rId3"/>
     <sheet name="Sedan_Hamba_r" sheetId="6" r:id="rId4"/>
-    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId5"/>
-    <sheet name="Bus_Makhulu_r" sheetId="8" r:id="rId6"/>
-    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="10" r:id="rId7"/>
-    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="9" r:id="rId8"/>
-    <sheet name="Truck_Amandla_A1" sheetId="12" r:id="rId9"/>
-    <sheet name="Truck_Amandla_A2" sheetId="13" r:id="rId10"/>
-    <sheet name="Truck_Amandla_A3" sheetId="14" r:id="rId11"/>
-    <sheet name="Truck_Rhuqa_A1" sheetId="17" r:id="rId12"/>
-    <sheet name="Truck_Rhuqa_A2" sheetId="18" r:id="rId13"/>
-    <sheet name="Truck_Rhuqa_A3" sheetId="19" r:id="rId14"/>
-    <sheet name="Trailer_Kumanzi_A1" sheetId="15" r:id="rId15"/>
-    <sheet name="Trailer_Kumanzi_A2" sheetId="16" r:id="rId16"/>
-    <sheet name="Trailer_Kumanzi_10m_A1 " sheetId="20" r:id="rId17"/>
-    <sheet name="Trailer_Kumanzi_10m_A2" sheetId="21" r:id="rId18"/>
-    <sheet name="Trailer_Elula_f" sheetId="3" r:id="rId19"/>
-    <sheet name="Trailer_Thwala_f" sheetId="4" r:id="rId20"/>
+    <sheet name="SUV_Landy_f" sheetId="22" r:id="rId5"/>
+    <sheet name="SUV_Landy_r" sheetId="23" r:id="rId6"/>
+    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId7"/>
+    <sheet name="Bus_Makhulu_r" sheetId="8" r:id="rId8"/>
+    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="10" r:id="rId9"/>
+    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="9" r:id="rId10"/>
+    <sheet name="Truck_Amandla_A1" sheetId="12" r:id="rId11"/>
+    <sheet name="Truck_Amandla_A2" sheetId="13" r:id="rId12"/>
+    <sheet name="Truck_Amandla_A3" sheetId="14" r:id="rId13"/>
+    <sheet name="Truck_Rhuqa_A1" sheetId="17" r:id="rId14"/>
+    <sheet name="Truck_Rhuqa_A2" sheetId="18" r:id="rId15"/>
+    <sheet name="Truck_Rhuqa_A3" sheetId="19" r:id="rId16"/>
+    <sheet name="Trailer_Kumanzi_A1" sheetId="15" r:id="rId17"/>
+    <sheet name="Trailer_Kumanzi_A2" sheetId="16" r:id="rId18"/>
+    <sheet name="Trailer_Kumanzi_10m_A1 " sheetId="20" r:id="rId19"/>
+    <sheet name="Trailer_Kumanzi_10m_A2" sheetId="21" r:id="rId20"/>
+    <sheet name="Trailer_Elula_f" sheetId="3" r:id="rId21"/>
+    <sheet name="Trailer_Thwala_f" sheetId="4" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="50">
   <si>
     <t>Units</t>
   </si>
@@ -194,6 +196,15 @@
   <si>
     <t>Simple15DOF_Trailer_Kumanzi_10m_A2</t>
   </si>
+  <si>
+    <t>Simple15DOF_SUV_Landy_f</t>
+  </si>
+  <si>
+    <t>Simple15DOF_SUV_Landy_r</t>
+  </si>
+  <si>
+    <t>For loaded vehicle</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +323,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -902,6 +928,570 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746EECC0-6467-4655-A5C6-CF8B36416941}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>4.2250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>20500/2/2</f>
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.83834449999999994</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.46136149999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6460814A-2B23-47CA-A1E9-513AB4D28DE6}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f>0.04225*2</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1.18895</v>
+      </c>
+      <c r="H13">
+        <v>0.67310000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AE8CBB-54A0-4303-8BF2-64CF66628F04}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -1184,7 +1774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E34EC0-51E4-42A2-9325-050E6479DA1F}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -1467,14 +2057,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3858A6DB-71B8-4C67-9508-229E7FC38BBB}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E35" sqref="E35"/>
       <selection pane="topRight" activeCell="E35" sqref="E35"/>
@@ -1751,7 +2341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38B3C56-B9F4-4912-9395-58B62B2F08B9}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -2035,7 +2625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090081EF-FB5F-4CA3-ACED-32C59642B58E}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -2319,7 +2909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD75C69-1488-4D58-8AE5-09760CCF8BA6}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -2601,7 +3191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9500C561-5646-4AD8-A7A2-390ECB1DD2C8}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -2883,7 +3473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CF7C26-B9CB-4542-9A9C-7AEAFC31853D}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -3144,570 +3734,6 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9">
-        <v>1.76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E01F00-5181-4059-AFFC-DD9E5AFA23A8}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E35" sqref="E35"/>
-      <selection pane="topRight" activeCell="E35" sqref="E35"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <f>0.04225*2</f>
-        <v>8.4500000000000006E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9">
-        <v>63333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.21124999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
-        <f>20500/2</f>
-        <v>10250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.52749999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9">
-        <v>1.76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BA80C1-5689-457F-B345-F063AA6574DE}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:M15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>4.2250000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9">
-        <v>66000</v>
-      </c>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
-        <v>3500</v>
-      </c>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.21124999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <f>66000/2</f>
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
-        <f>20500/2</f>
-        <v>10250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.68889999999999996</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.35329999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
@@ -4009,6 +4035,570 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E01F00-5181-4059-AFFC-DD9E5AFA23A8}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f>0.04225*2</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>63333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.52749999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BA80C1-5689-457F-B345-F063AA6574DE}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>4.2250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>66000</v>
+      </c>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>3500</v>
+      </c>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.68889999999999996</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.35329999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883978A2-0E46-464C-8DB8-584FCCDFA0D8}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -4853,6 +5443,583 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BD44DB-D571-48D8-8131-08757D11587F}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>4.2250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.74295</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02CE355-76A6-40C7-B6FA-12AC45FF7B97}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>4.2250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>66000/2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>20500/2</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.74295</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A97FCD-2534-4478-BAC4-D67EADDA069F}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -5133,7 +6300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51A71D7-3A2F-45F6-AC18-20D7311A48CC}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -5414,7 +6581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB62AB7-D9A0-459D-BC79-8D114BE64124}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -5694,568 +6861,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746EECC0-6467-4655-A5C6-CF8B36416941}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E35" sqref="E35"/>
-      <selection pane="topRight" activeCell="E35" sqref="E35"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>4.2250000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9">
-        <f>66000/2</f>
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.21124999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <f>66000/2</f>
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
-        <f>20500/2/2</f>
-        <v>5125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0.83834449999999994</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.46136149999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9">
-        <v>1.76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6460814A-2B23-47CA-A1E9-513AB4D28DE6}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E35" sqref="E35"/>
-      <selection pane="topRight" activeCell="E35" sqref="E35"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <f>0.04225*2</f>
-        <v>8.4500000000000006E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.21124999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <f>66000/2</f>
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
-        <f>20500/2</f>
-        <v>10250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1.18895</v>
-      </c>
-      <c r="H13">
-        <v>0.67310000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9">
-        <v>1.76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>